--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -30,6 +30,9 @@
     <t>position</t>
   </si>
   <si>
+    <t>rotation</t>
+  </si>
+  <si>
     <t>greetNodeId</t>
   </si>
   <si>
@@ -42,7 +45,19 @@
     <t>初始位置</t>
   </si>
   <si>
+    <t>初始旋转</t>
+  </si>
+  <si>
     <t>招呼</t>
+  </si>
+  <si>
+    <t>4620|-18620|1500</t>
+  </si>
+  <si>
+    <t>0|0|175</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -51,12 +66,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="10.000000"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -80,29 +97,18 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,39 +414,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -459,76 +465,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -564,408 +560,254 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto"/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto"/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" style="1" width="10.875"/>
-    <col customWidth="1" min="3" max="3" width="15.625"/>
+    <col customWidth="1" min="1" max="16384" style="1" width="12.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1">
+    <row r="4" ht="15" customHeight="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
+    <row r="6" ht="15" customHeight="1">
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
-    <row r="7" s="1" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" s="1" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1">
-      <c r="B10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" s="1" customFormat="1">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" s="1" customFormat="1">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" s="1" customFormat="1">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" s="1" customFormat="1">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" s="1" customFormat="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" s="1" customFormat="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" s="1" customFormat="1">
-      <c r="A18" s="6"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" s="1" customFormat="1">
-      <c r="A19" s="6"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" s="1" customFormat="1">
-      <c r="A20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" s="1" customFormat="1">
-      <c r="A21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" s="1" customFormat="1">
-      <c r="A22" s="6"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" s="1" customFormat="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" s="1" customFormat="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" s="1" customFormat="1">
-      <c r="A25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" s="1" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" s="1" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" s="1" customFormat="1">
-      <c r="A28" s="6"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1">
-      <c r="A29" s="6"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" s="1" customFormat="1">
-      <c r="A30" s="6"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1">
-      <c r="A31" s="6"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" s="1" customFormat="1">
-      <c r="A32" s="6"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" s="1" customFormat="1">
-      <c r="A33" s="6"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" s="1" customFormat="1">
-      <c r="A34" s="6"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" s="1" customFormat="1">
-      <c r="A35" s="6"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" s="1" customFormat="1">
-      <c r="A36" s="6"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" s="1" customFormat="1">
-      <c r="A37" s="6"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" s="1" customFormat="1">
-      <c r="A38" s="6"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" s="1" customFormat="1">
-      <c r="A39" s="6"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" s="1" customFormat="1">
-      <c r="A40" s="6"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" s="1" customFormat="1">
-      <c r="A41" s="6"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" s="1" customFormat="1">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" ht="15"/>
-    <row r="44" ht="15"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">int[]</t>
   </si>
   <si>
+    <t xml:space="preserve">string[]</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">npcAction</t>
   </si>
   <si>
+    <t xml:space="preserve">BasicActions</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t xml:space="preserve">动作事件</t>
   </si>
   <si>
+    <t xml:space="preserve">npc基础动作</t>
+  </si>
+  <si>
     <t xml:space="preserve">4620|-18620|1500</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24|25|26|27|28|29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14601|14624</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -176,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,6 +214,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,10 +238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,49 +270,59 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="4"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -306,21 +332,24 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">npcAction</t>
   </si>
   <si>
-    <t xml:space="preserve">BasicActions</t>
+    <t xml:space="preserve">basicActions</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -188,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +214,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,7 +237,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,7 +266,7 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -293,7 +289,7 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -316,13 +312,13 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="4"/>
-      <c r="G4" s="0"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -343,7 +339,7 @@
       <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5137D57-A84C-4F1A-BEA6-F56BC115B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FB149-CEA2-415E-BF42-62F3ED085ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FB149-CEA2-415E-BF42-62F3ED085ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>vector3</t>
   </si>
   <si>
@@ -45,6 +36,9 @@
     <t>characterId</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>position</t>
   </si>
   <si>
@@ -63,7 +57,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>角色 ID</t>
+    <t xml:space="preserve">角色 ID</t>
+  </si>
+  <si>
+    <t>形象</t>
   </si>
   <si>
     <t>初始位置</t>
@@ -99,40 +96,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,27 +129,27 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -176,15 +160,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -226,108 +490,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,7 +505,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -361,7 +531,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -413,16 +583,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -438,7 +620,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -469,32 +651,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="5" width="10.44140625" style="1"/>
-    <col min="6" max="6" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.44140625" style="1"/>
+    <col min="1" max="2" style="1" width="10.44140625"/>
+    <col min="3" max="3" style="1" width="10.44140625"/>
+    <col min="4" max="6" style="1" width="10.44140625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="50.44140625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="12.21875"/>
+    <col min="9" max="16384" style="1" width="10.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,99 +682,107 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15" customHeight="1"/>
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+    <row r="6" ht="15" customHeight="1">
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75208333333333299" bottom="0.75208333333333299" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70069444444444484" right="0.70069444444444484" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121AB78-8D06-45AC-ACF5-9166424704AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>int</t>
   </si>
@@ -57,7 +64,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">角色 ID</t>
+    <t>角色 ID</t>
   </si>
   <si>
     <t>形象</t>
@@ -84,39 +91,74 @@
     <t>0|0|175</t>
   </si>
   <si>
-    <t>1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24|25|26|27|28|29</t>
-  </si>
-  <si>
     <t>14601|14624</t>
   </si>
   <si>
-    <t>.</t>
+    <t>5860|-19235|1442</t>
+  </si>
+  <si>
+    <t>0|0|45</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24</t>
+  </si>
+  <si>
+    <t>5140|-20460|1332</t>
+  </si>
+  <si>
+    <t>2943|-20961|1219</t>
+  </si>
+  <si>
+    <t>0|0|250</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0CE65651422E71E84423E681142A581F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9F4398349B6D10C043C4F92C0A58C6E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>959D53384BD302DD4AA78B9E7FA077FE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color indexed="64"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,27 +171,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -160,295 +198,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,27 +409,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" style="1" width="10.44140625"/>
-    <col min="3" max="3" style="1" width="10.44140625"/>
-    <col min="4" max="6" style="1" width="10.44140625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="50.44140625"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="12.21875"/>
-    <col min="9" max="16384" style="1" width="10.44140625"/>
+    <col min="1" max="2" width="10.44140625" style="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" style="1"/>
+    <col min="7" max="7" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -723,7 +484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -749,40 +510,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1"/>
-    <row r="5" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70069444444444484" right="0.70069444444444484" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121AB78-8D06-45AC-ACF5-9166424704AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1ED50B-CC9B-4E28-9F23-5285767DF484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>int</t>
   </si>
@@ -85,33 +85,18 @@
     <t>npc基础动作</t>
   </si>
   <si>
-    <t>4620|-18620|1500</t>
-  </si>
-  <si>
-    <t>0|0|175</t>
-  </si>
-  <si>
     <t>14601|14624</t>
   </si>
   <si>
     <t>5860|-19235|1442</t>
   </si>
   <si>
-    <t>0|0|45</t>
-  </si>
-  <si>
     <t>1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24</t>
   </si>
   <si>
     <t>5140|-20460|1332</t>
   </si>
   <si>
-    <t>2943|-20961|1219</t>
-  </si>
-  <si>
-    <t>0|0|250</t>
-  </si>
-  <si>
     <t>1|2|3|4|5|6|7|8|9|10|12|13|14|15|16|17|18|19|20|21|22|23|24</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -129,6 +114,30 @@
   </si>
   <si>
     <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2859|-20882|1219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>87|-17132|1176</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|225</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|135</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|260</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -153,6 +162,7 @@
       <sz val="12"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -418,7 +428,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -519,22 +529,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -545,22 +555,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -571,22 +581,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -597,22 +607,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1ED50B-CC9B-4E28-9F23-5285767DF484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B199A9-6D95-4ACF-9DD3-91C09ABB907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|260</t>
+    <t>0|0|265</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B199A9-6D95-4ACF-9DD3-91C09ABB907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825B81B-B0EF-4491-8147-C16C992E80A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,30 +101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0CE65651422E71E84423E681142A581F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F9F4398349B6D10C043C4F92C0A58C6E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>959D53384BD302DD4AA78B9E7FA077FE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>212B5FEC4468537FB2D4BC9FB3C853FD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2859|-20882|1219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>87|-17132|1176</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -134,6 +110,30 @@
   </si>
   <si>
     <t>0|0|135</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2859|-20882|1240</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>723501EC429CA23BA0FC0B8185AE710E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2CD618014A460C32BEB18AB6E7AA7593</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43336D6746AA1D10AB1672B4ACDB8902</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3BA5D7A4CE2021868965E85D54839F0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -428,7 +428,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -529,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -581,13 +581,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>26</v>
@@ -607,10 +607,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825B81B-B0EF-4491-8147-C16C992E80A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B676955-CC08-43CE-94D9-18E5A303DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>int</t>
   </si>
@@ -137,7 +148,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|265</t>
+    <t>B89E24A84196FDA7DAF70FB2F1FB8824</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>193FB9E241587FFE5C58389E28C29C8F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13934140465336A72C371AA747D7C6C7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF2FF85C48B4DD2998A4AF852A596BAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1009|-7528|760</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5059|-9845|545</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12872|3333|2935</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4689|6551|1605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|270</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|115</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -191,13 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +587,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -622,6 +674,110 @@
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B676955-CC08-43CE-94D9-18E5A303DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666877C-0A86-416D-8252-90415DD9A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="5385" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +694,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="1">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="1">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
@@ -746,7 +746,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
@@ -772,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666877C-0A86-416D-8252-90415DD9A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE40778-F62D-46E1-BF8C-C9F7AB198BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="5385" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
@@ -746,7 +746,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
@@ -772,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE40778-F62D-46E1-BF8C-C9F7AB198BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DAA5B-7651-4A9A-AD34-2E037071D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>int</t>
   </si>
@@ -188,7 +188,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|115</t>
+    <t>0|0|130</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C515F42248D3B6522F4AA6BD0517A051</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4854|14366|4299</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|235</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +628,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -642,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="1">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -668,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
@@ -778,6 +790,29 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>126</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excels/Npc_非玩家角色表.xlsx
+++ b/Excels/Npc_非玩家角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DAA5B-7651-4A9A-AD34-2E037071D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E120CC2-0B72-45DC-9720-5E5ABAA2CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +628,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="1">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -654,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="1">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
